--- a/scoring/USA_Scoring/EDGI_exercise_scoresheet.xlsx
+++ b/scoring/USA_Scoring/EDGI_exercise_scoresheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI_Exercise/scoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI_Exercise_Validation/scoring/USA_Scoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FD508-D0D2-D94B-9010-13B1B617E8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E1F56A-0E0E-EF48-9717-9DCB4878F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="760" windowWidth="29600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="760" windowWidth="29600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED100k" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>wt_hi_lb</t>
   </si>
   <si>
-    <t>lowestadultbmi</t>
-  </si>
-  <si>
     <t>wt_lo_lb</t>
   </si>
   <si>
@@ -2106,6 +2103,9 @@
   </si>
   <si>
     <t>ED100k_exercise_icb, ED100k_ex8_maladaptive_current</t>
+  </si>
+  <si>
+    <t>lowestadultBMI</t>
   </si>
 </sst>
 </file>
@@ -3238,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -3334,7 +3334,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -3363,13 +3363,13 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3433,13 +3433,13 @@
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3468,13 +3468,13 @@
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
@@ -3503,13 +3503,13 @@
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>11</v>
@@ -3538,13 +3538,13 @@
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>11</v>
@@ -3573,22 +3573,22 @@
     </row>
     <row r="10" spans="1:11" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>581</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>582</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>11</v>
@@ -3608,14 +3608,14 @@
     </row>
     <row r="11" spans="1:11" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>584</v>
-      </c>
       <c r="D11" s="26" t="s">
         <v>11</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>11</v>
@@ -3643,13 +3643,13 @@
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>577</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>578</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>12</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>11</v>
@@ -3678,13 +3678,13 @@
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>11</v>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
@@ -3748,13 +3748,13 @@
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>11</v>
@@ -3783,13 +3783,13 @@
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>11</v>
@@ -3818,13 +3818,13 @@
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>11</v>
@@ -3853,13 +3853,13 @@
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>11</v>
@@ -3894,7 +3894,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>12</v>
@@ -3923,13 +3923,13 @@
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>11</v>
@@ -3958,13 +3958,13 @@
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>12</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>11</v>
@@ -3993,13 +3993,13 @@
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>12</v>
@@ -4028,13 +4028,13 @@
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>12</v>
@@ -4063,13 +4063,13 @@
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>12</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>11</v>
@@ -4098,13 +4098,13 @@
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>12</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>11</v>
@@ -4133,13 +4133,13 @@
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>11</v>
@@ -4168,13 +4168,13 @@
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>12</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>11</v>
@@ -4209,7 +4209,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>12</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>11</v>
@@ -4238,13 +4238,13 @@
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>12</v>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>12</v>
@@ -4308,13 +4308,13 @@
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>12</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>11</v>
@@ -4343,13 +4343,13 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>12</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>11</v>
@@ -4378,13 +4378,13 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>342</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>12</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>11</v>
@@ -4413,13 +4413,13 @@
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>12</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>11</v>
@@ -4448,13 +4448,13 @@
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>12</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>11</v>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>12</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>11</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>12</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>11</v>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>12</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>11</v>
@@ -4588,13 +4588,13 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>12</v>
@@ -4623,13 +4623,13 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>12</v>
@@ -4658,13 +4658,13 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>12</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>11</v>
@@ -4693,13 +4693,13 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>12</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>11</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>12</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>11</v>
@@ -4769,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>12</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>11</v>
@@ -4798,13 +4798,13 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>12</v>
@@ -4833,13 +4833,13 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>12</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>11</v>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>12</v>
@@ -4903,13 +4903,13 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>12</v>
@@ -4938,13 +4938,13 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>12</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>11</v>
@@ -4973,13 +4973,13 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>12</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>11</v>
@@ -5008,13 +5008,13 @@
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>12</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>11</v>
@@ -5043,13 +5043,13 @@
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>23</v>
+        <v>689</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>12</v>
@@ -5078,13 +5078,13 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>12</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>11</v>
@@ -5119,7 +5119,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>12</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>11</v>
@@ -5154,7 +5154,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>12</v>
@@ -5189,7 +5189,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>12</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>11</v>
@@ -5218,13 +5218,13 @@
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>12</v>
@@ -5253,13 +5253,13 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>12</v>
@@ -5288,13 +5288,13 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>12</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>11</v>
@@ -5323,13 +5323,13 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>12</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>11</v>
@@ -5358,13 +5358,13 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>12</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>11</v>
@@ -5393,13 +5393,13 @@
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>12</v>
@@ -5428,13 +5428,13 @@
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>12</v>
@@ -5463,13 +5463,13 @@
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>12</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>11</v>
@@ -5498,13 +5498,13 @@
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>12</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>11</v>
@@ -5533,13 +5533,13 @@
     </row>
     <row r="66" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>12</v>
@@ -5574,7 +5574,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>12</v>
@@ -5603,13 +5603,13 @@
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>12</v>
@@ -5638,13 +5638,13 @@
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>12</v>
@@ -5673,13 +5673,13 @@
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>12</v>
@@ -5709,7 +5709,7 @@
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE, A2:A70)</f>
-        <v>record_id,age,age_hitwt,age_lowt,an_bmi,an_case,be_control,be_dur,be_agefirst,be_agelast,be_current,be_icb___5,be_week,bed_case,bn_case,compul_eat,control,currentbmi,dietpills,diuretics,dp_age,dp_age_last,dp_current,dp_dur,ex_dur,ed100kv3_complete,ethnicity,ex_age,ex_age_last,ex_compel,ex_current,ex_diet,ex_distress,ex_freq,ex_friend,ex_ill,exercise,fast_age,fast_age_last,fast_current,fast_dur,fasted,gender,height,icb_lowt_5,lax_age,lax_age_last,lax_current,lax_dur,laxatives,lowestadultbmi,purging,race,record_id,sex,vom_age,vom_age_last,vom_current,vom_dur,vomit,wp_age,wp_age_last,wp_current,wp_dur,wt_cur_lb,wt_hi_lb,wt_lo_age,wt_lo_lb,wt_loan_lb</v>
+        <v>record_id,age,age_hitwt,age_lowt,an_bmi,an_case,be_control,be_dur,be_agefirst,be_agelast,be_current,be_icb___5,be_week,bed_case,bn_case,compul_eat,control,currentbmi,dietpills,diuretics,dp_age,dp_age_last,dp_current,dp_dur,ex_dur,ed100kv3_complete,ethnicity,ex_age,ex_age_last,ex_compel,ex_current,ex_diet,ex_distress,ex_freq,ex_friend,ex_ill,exercise,fast_age,fast_age_last,fast_current,fast_dur,fasted,gender,height,icb_lowt_5,lax_age,lax_age_last,lax_current,lax_dur,laxatives,lowestadultBMI,purging,race,record_id,sex,vom_age,vom_age_last,vom_current,vom_dur,vomit,wp_age,wp_age_last,wp_current,wp_dur,wt_cur_lb,wt_hi_lb,wt_lo_age,wt_lo_lb,wt_loan_lb</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>11</v>
@@ -5744,13 +5744,13 @@
     </row>
     <row r="72" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>596</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>14</v>
@@ -5759,10 +5759,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>598</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>11</v>
@@ -5779,13 +5779,13 @@
     </row>
     <row r="73" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>14</v>
@@ -5794,10 +5794,10 @@
         <v>2</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>11</v>
@@ -5814,13 +5814,13 @@
     </row>
     <row r="74" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>14</v>
@@ -5829,10 +5829,10 @@
         <v>2</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>11</v>
@@ -5849,13 +5849,13 @@
     </row>
     <row r="75" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>14</v>
@@ -5864,10 +5864,10 @@
         <v>2</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>11</v>
@@ -5884,13 +5884,13 @@
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>14</v>
@@ -5899,10 +5899,10 @@
         <v>2</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>11</v>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>14</v>
@@ -5934,10 +5934,10 @@
         <v>2</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>11</v>
@@ -5954,13 +5954,13 @@
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>14</v>
@@ -5969,10 +5969,10 @@
         <v>2</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>11</v>
@@ -5992,10 +5992,10 @@
         <v>19</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>14</v>
@@ -6004,10 +6004,10 @@
         <v>2</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>11</v>
@@ -6027,10 +6027,10 @@
         <v>19</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>14</v>
@@ -6039,10 +6039,10 @@
         <v>2</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>11</v>
@@ -6059,13 +6059,13 @@
     </row>
     <row r="81" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>14</v>
@@ -6074,10 +6074,10 @@
         <v>2</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>11</v>
@@ -6094,16 +6094,16 @@
     </row>
     <row r="82" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E82" s="9">
         <v>3</v>
@@ -6115,13 +6115,13 @@
         <v>11</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I82" s="9">
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>11</v>
@@ -6129,16 +6129,16 @@
     </row>
     <row r="83" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E83" s="9">
         <v>3</v>
@@ -6150,13 +6150,13 @@
         <v>11</v>
       </c>
       <c r="H83" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>11</v>
@@ -6164,22 +6164,22 @@
     </row>
     <row r="84" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>593</v>
-      </c>
       <c r="D84" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E84" s="9">
         <v>3</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>11</v>
@@ -6194,27 +6194,27 @@
         <v>11</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E85" s="9">
         <v>3</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>11</v>
@@ -6229,27 +6229,27 @@
         <v>11</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E86" s="9">
         <v>3</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>11</v>
@@ -6264,39 +6264,39 @@
         <v>11</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E87" s="9">
         <v>3</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I87" s="9">
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>11</v>
@@ -6307,48 +6307,48 @@
         <v>17</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>563</v>
-      </c>
       <c r="D88" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E88" s="9">
         <v>3</v>
       </c>
       <c r="F88" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E89" s="9">
         <v>3</v>
@@ -6360,13 +6360,13 @@
         <v>11</v>
       </c>
       <c r="H89" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>11</v>
@@ -6374,16 +6374,16 @@
     </row>
     <row r="90" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E90" s="9">
         <v>3</v>
@@ -6395,13 +6395,13 @@
         <v>11</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I90" s="9">
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>11</v>
@@ -6409,16 +6409,16 @@
     </row>
     <row r="91" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E91" s="9">
         <v>3</v>
@@ -6430,13 +6430,13 @@
         <v>11</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I91" s="9">
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>11</v>
@@ -6444,34 +6444,34 @@
     </row>
     <row r="92" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>586</v>
-      </c>
       <c r="D92" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E92" s="9">
         <v>3</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I92" s="9">
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>11</v>
@@ -6480,16 +6480,16 @@
     </row>
     <row r="93" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E93" s="9">
         <v>3</v>
@@ -6501,13 +6501,13 @@
         <v>11</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I93" s="9">
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>11</v>
@@ -6515,34 +6515,34 @@
     </row>
     <row r="94" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>590</v>
-      </c>
       <c r="D94" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E94" s="9">
         <v>3</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I94" s="9">
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>11</v>
@@ -6550,16 +6550,16 @@
     </row>
     <row r="95" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E95" s="9">
         <v>3</v>
@@ -6571,13 +6571,13 @@
         <v>11</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I95" s="9">
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>11</v>
@@ -6585,16 +6585,16 @@
     </row>
     <row r="96" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E96" s="9">
         <v>3</v>
@@ -6606,13 +6606,13 @@
         <v>11</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I96" s="9">
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K96" s="9" t="s">
         <v>11</v>
@@ -6620,34 +6620,34 @@
     </row>
     <row r="97" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B97" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="D97" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E97" s="29">
         <v>4</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I97" s="29">
         <v>0</v>
       </c>
       <c r="J97" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K97" s="29" t="s">
         <v>11</v>
@@ -6655,13 +6655,13 @@
     </row>
     <row r="98" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>14</v>
@@ -6670,10 +6670,10 @@
         <v>4</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>11</v>
@@ -6690,13 +6690,13 @@
     </row>
     <row r="99" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>14</v>
@@ -6705,10 +6705,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>11</v>
@@ -6725,13 +6725,13 @@
     </row>
     <row r="100" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>367</v>
-      </c>
       <c r="C100" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>14</v>
@@ -6740,10 +6740,10 @@
         <v>4</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>11</v>
@@ -6760,13 +6760,13 @@
     </row>
     <row r="101" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>14</v>
@@ -6775,10 +6775,10 @@
         <v>4</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>11</v>
@@ -6795,13 +6795,13 @@
     </row>
     <row r="102" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="C102" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>14</v>
@@ -6810,10 +6810,10 @@
         <v>4</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>11</v>
@@ -6830,13 +6830,13 @@
     </row>
     <row r="103" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>379</v>
-      </c>
       <c r="C103" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>14</v>
@@ -6845,10 +6845,10 @@
         <v>4</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>11</v>
@@ -6865,13 +6865,13 @@
     </row>
     <row r="104" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>14</v>
@@ -6880,10 +6880,10 @@
         <v>4</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>11</v>
@@ -6900,13 +6900,13 @@
     </row>
     <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>14</v>
@@ -6915,10 +6915,10 @@
         <v>4</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>11</v>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B106" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>14</v>
@@ -6950,10 +6950,10 @@
         <v>5</v>
       </c>
       <c r="F106" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="G106" s="29" t="s">
         <v>607</v>
-      </c>
-      <c r="G106" s="29" t="s">
-        <v>608</v>
       </c>
       <c r="H106" s="29" t="s">
         <v>11</v>
@@ -6970,22 +6970,22 @@
     </row>
     <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E107" s="9">
         <v>5</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>11</v>
@@ -7000,18 +7000,18 @@
         <v>11</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>14</v>
@@ -7020,10 +7020,10 @@
         <v>6</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>11</v>
@@ -7040,13 +7040,13 @@
     </row>
     <row r="109" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>14</v>
@@ -7055,10 +7055,10 @@
         <v>6</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>11</v>
@@ -7075,49 +7075,49 @@
     </row>
     <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E110" s="9">
         <v>6</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I110" s="9">
         <v>0</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="D111" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E111" s="9">
         <v>6</v>
@@ -7129,13 +7129,13 @@
         <v>11</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I111" s="9">
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>11</v>
@@ -7143,16 +7143,16 @@
     </row>
     <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E112" s="9">
         <v>6</v>
@@ -7164,13 +7164,13 @@
         <v>11</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I112" s="9">
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>11</v>
@@ -7178,16 +7178,16 @@
     </row>
     <row r="113" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E113" s="9">
         <v>6</v>
@@ -7199,13 +7199,13 @@
         <v>11</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I113" s="9">
         <v>0</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>11</v>
@@ -7213,16 +7213,16 @@
     </row>
     <row r="114" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E114" s="9">
         <v>6</v>
@@ -7234,13 +7234,13 @@
         <v>11</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I114" s="9">
         <v>0</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>11</v>
@@ -7248,13 +7248,13 @@
     </row>
     <row r="115" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>14</v>
@@ -7263,10 +7263,10 @@
         <v>6</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>11</v>
@@ -7283,16 +7283,16 @@
     </row>
     <row r="116" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E116" s="9">
         <v>6</v>
@@ -7304,13 +7304,13 @@
         <v>11</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I116" s="9">
         <v>0</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>11</v>
@@ -7318,13 +7318,13 @@
     </row>
     <row r="117" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>14</v>
@@ -7333,10 +7333,10 @@
         <v>6</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>11</v>
@@ -7353,22 +7353,22 @@
     </row>
     <row r="118" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E118" s="9">
         <v>7</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>11</v>
@@ -7383,25 +7383,25 @@
         <v>11</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E119" s="9">
         <v>7</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>11</v>
@@ -7416,27 +7416,27 @@
         <v>11</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="D120" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E120" s="9">
         <v>7</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>11</v>
@@ -7451,21 +7451,21 @@
         <v>11</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E121" s="9">
         <v>7</v>
@@ -7491,22 +7491,22 @@
     </row>
     <row r="122" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E122" s="9">
         <v>7</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>11</v>
@@ -7521,18 +7521,18 @@
         <v>11</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>344</v>
-      </c>
       <c r="C123" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>14</v>
@@ -7541,10 +7541,10 @@
         <v>7</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>11</v>
@@ -7561,13 +7561,13 @@
     </row>
     <row r="124" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>14</v>
@@ -7576,10 +7576,10 @@
         <v>8</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>11</v>
@@ -7596,10 +7596,10 @@
     </row>
     <row r="125" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="9" t="s">
@@ -7609,10 +7609,10 @@
         <v>8</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>11</v>
@@ -7629,22 +7629,22 @@
     </row>
     <row r="126" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E126" s="9">
         <v>8</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G126" s="9" t="s">
         <v>11</v>
@@ -7659,21 +7659,21 @@
         <v>11</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E127" s="9">
         <v>8</v>
@@ -7694,27 +7694,27 @@
         <v>11</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>571</v>
-      </c>
       <c r="D128" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E128" s="9">
         <v>9</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>11</v>
@@ -7729,21 +7729,21 @@
         <v>11</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E129" s="9">
         <v>10</v>
@@ -7764,21 +7764,21 @@
         <v>11</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E130" s="9">
         <v>10</v>
@@ -7799,7 +7799,7 @@
         <v>11</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7876,7 +7876,7 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -7900,7 +7900,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -7946,13 +7946,13 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -7981,13 +7981,13 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -8016,13 +8016,13 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -8051,13 +8051,13 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -8086,13 +8086,13 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -8121,13 +8121,13 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -8156,13 +8156,13 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -8191,13 +8191,13 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -8226,13 +8226,13 @@
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -8261,13 +8261,13 @@
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -8296,13 +8296,13 @@
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -8331,13 +8331,13 @@
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -8366,13 +8366,13 @@
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -8401,13 +8401,13 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -8436,13 +8436,13 @@
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -8471,13 +8471,13 @@
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -8506,13 +8506,13 @@
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -8541,13 +8541,13 @@
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -8612,16 +8612,16 @@
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -8647,16 +8647,16 @@
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -8682,16 +8682,16 @@
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -8717,16 +8717,16 @@
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -8752,16 +8752,16 @@
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B27" t="s">
+        <v>608</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>610</v>
-      </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -8771,13 +8771,13 @@
         <v>11</v>
       </c>
       <c r="H27" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>662</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>663</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>11</v>
@@ -8785,16 +8785,16 @@
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B28" t="s">
+        <v>611</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>613</v>
-      </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -8804,13 +8804,13 @@
         <v>11</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>11</v>
@@ -8818,16 +8818,16 @@
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -8837,13 +8837,13 @@
         <v>11</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>11</v>
@@ -8851,16 +8851,16 @@
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -8870,13 +8870,13 @@
         <v>11</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>11</v>
@@ -8884,16 +8884,16 @@
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -8919,16 +8919,16 @@
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B32" t="s">
+        <v>620</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>622</v>
-      </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -8940,13 +8940,13 @@
         <v>11</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K32" s="25" t="s">
         <v>11</v>
@@ -8954,22 +8954,22 @@
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>11</v>
@@ -8984,27 +8984,27 @@
         <v>11</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E34">
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>11</v>
@@ -9019,7 +9019,7 @@
         <v>11</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -9102,7 +9102,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -9113,13 +9113,13 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -9148,13 +9148,13 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -9183,13 +9183,13 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -9218,13 +9218,13 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -9253,13 +9253,13 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -9288,13 +9288,13 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -9323,13 +9323,13 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -9358,13 +9358,13 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -9393,13 +9393,13 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -9428,13 +9428,13 @@
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -9463,13 +9463,13 @@
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -9498,13 +9498,13 @@
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -9569,16 +9569,16 @@
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9604,16 +9604,16 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -9639,16 +9639,16 @@
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -9674,16 +9674,16 @@
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -9695,13 +9695,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>11</v>
@@ -9709,16 +9709,16 @@
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -9730,13 +9730,13 @@
         <v>11</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>11</v>
@@ -9744,16 +9744,16 @@
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -9765,13 +9765,13 @@
         <v>11</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>11</v>
@@ -9836,13 +9836,13 @@
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>12</v>
@@ -9871,13 +9871,13 @@
     </row>
     <row r="3" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>12</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>11</v>
@@ -9906,13 +9906,13 @@
     </row>
     <row r="4" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>12</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>11</v>
@@ -9941,13 +9941,13 @@
     </row>
     <row r="5" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>12</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>11</v>
@@ -9976,13 +9976,13 @@
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>12</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>11</v>
@@ -10011,13 +10011,13 @@
     </row>
     <row r="7" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>12</v>
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>11</v>
@@ -10046,13 +10046,13 @@
     </row>
     <row r="8" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>12</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>11</v>
@@ -10081,13 +10081,13 @@
     </row>
     <row r="9" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>11</v>
@@ -10116,13 +10116,13 @@
     </row>
     <row r="10" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>12</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>11</v>
@@ -10151,13 +10151,13 @@
     </row>
     <row r="11" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>12</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>11</v>
@@ -10186,13 +10186,13 @@
     </row>
     <row r="12" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>12</v>
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>11</v>
@@ -10221,13 +10221,13 @@
     </row>
     <row r="13" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>12</v>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>11</v>
@@ -10256,13 +10256,13 @@
     </row>
     <row r="14" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>12</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>11</v>
@@ -10291,13 +10291,13 @@
     </row>
     <row r="15" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>12</v>
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>11</v>
@@ -10326,13 +10326,13 @@
     </row>
     <row r="16" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>12</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>11</v>
@@ -10361,13 +10361,13 @@
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>12</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>11</v>
@@ -10396,13 +10396,13 @@
     </row>
     <row r="18" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>12</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>11</v>
@@ -10431,13 +10431,13 @@
     </row>
     <row r="19" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>12</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>11</v>
@@ -10466,13 +10466,13 @@
     </row>
     <row r="20" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>12</v>
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>11</v>
@@ -10501,13 +10501,13 @@
     </row>
     <row r="21" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>12</v>
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>11</v>
@@ -10536,13 +10536,13 @@
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>12</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>11</v>
@@ -10571,13 +10571,13 @@
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>12</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>11</v>
@@ -10606,13 +10606,13 @@
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>12</v>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>11</v>
@@ -10641,13 +10641,13 @@
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>12</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>11</v>
@@ -10676,13 +10676,13 @@
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>12</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>11</v>
@@ -10711,13 +10711,13 @@
     </row>
     <row r="27" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>12</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>11</v>
@@ -10746,13 +10746,13 @@
     </row>
     <row r="28" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>12</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>11</v>
@@ -10781,13 +10781,13 @@
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>12</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>11</v>
@@ -10816,13 +10816,13 @@
     </row>
     <row r="30" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>12</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>11</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="31" spans="1:11" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>11</v>
@@ -10886,16 +10886,16 @@
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" t="s">
         <v>387</v>
-      </c>
-      <c r="D32" t="s">
-        <v>388</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -10921,16 +10921,16 @@
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -10956,16 +10956,16 @@
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -10991,16 +10991,16 @@
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -11026,16 +11026,16 @@
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -11047,13 +11047,13 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>11</v>
@@ -11061,16 +11061,16 @@
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -11096,16 +11096,16 @@
     </row>
     <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -11131,16 +11131,16 @@
     </row>
     <row r="39" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -11166,22 +11166,22 @@
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -11201,16 +11201,16 @@
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -11219,13 +11219,13 @@
         <v>11</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>11</v>
@@ -11233,16 +11233,16 @@
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -11251,13 +11251,13 @@
         <v>11</v>
       </c>
       <c r="H42" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
@@ -11265,16 +11265,16 @@
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -11283,13 +11283,13 @@
         <v>11</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>515</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
@@ -11297,16 +11297,16 @@
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -11315,13 +11315,13 @@
         <v>11</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
@@ -11329,16 +11329,16 @@
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" t="s">
+        <v>394</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -11423,13 +11423,13 @@
     </row>
     <row r="2" spans="1:11" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>12</v>
@@ -11458,13 +11458,13 @@
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>11</v>
@@ -11493,13 +11493,13 @@
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>12</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>11</v>
@@ -11528,13 +11528,13 @@
     </row>
     <row r="5" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>12</v>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>11</v>
@@ -11563,13 +11563,13 @@
     </row>
     <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>11</v>
@@ -11598,13 +11598,13 @@
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>12</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>11</v>
@@ -11633,13 +11633,13 @@
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>12</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>11</v>
@@ -11668,13 +11668,13 @@
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>12</v>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>11</v>
@@ -11703,13 +11703,13 @@
     </row>
     <row r="10" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>12</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>11</v>
@@ -11738,13 +11738,13 @@
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>12</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>11</v>
@@ -11773,13 +11773,13 @@
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>12</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>11</v>
@@ -11808,13 +11808,13 @@
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>12</v>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>11</v>
@@ -11843,13 +11843,13 @@
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>12</v>
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>11</v>
@@ -11878,13 +11878,13 @@
     </row>
     <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>12</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>11</v>
@@ -11913,13 +11913,13 @@
     </row>
     <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>12</v>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>11</v>
@@ -11948,13 +11948,13 @@
     </row>
     <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>12</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>11</v>
@@ -11983,13 +11983,13 @@
     </row>
     <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>12</v>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>11</v>
@@ -12018,13 +12018,13 @@
     </row>
     <row r="19" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>12</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>11</v>
@@ -12053,13 +12053,13 @@
     </row>
     <row r="20" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>12</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>11</v>
@@ -12088,13 +12088,13 @@
     </row>
     <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>12</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>11</v>
@@ -12123,13 +12123,13 @@
     </row>
     <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>12</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>11</v>
@@ -12158,13 +12158,13 @@
     </row>
     <row r="23" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>12</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>11</v>
@@ -12193,13 +12193,13 @@
     </row>
     <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>12</v>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>11</v>
@@ -12228,13 +12228,13 @@
     </row>
     <row r="25" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>12</v>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>11</v>
@@ -12263,13 +12263,13 @@
     </row>
     <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>12</v>
@@ -12278,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>11</v>
@@ -12334,16 +12334,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -12369,16 +12369,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
@@ -12404,16 +12404,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -12439,16 +12439,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E31" s="5">
         <v>2</v>
@@ -12474,16 +12474,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -12509,16 +12509,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E33" s="5">
         <v>2</v>
@@ -12544,16 +12544,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E34" s="5">
         <v>2</v>
@@ -12579,13 +12579,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
@@ -12594,10 +12594,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>11</v>
@@ -12614,16 +12614,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -12649,16 +12649,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
@@ -12684,16 +12684,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E38" s="5">
         <v>2</v>
@@ -12719,13 +12719,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -12734,10 +12734,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>11</v>
@@ -12754,16 +12754,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E40" s="5">
         <v>2</v>
@@ -12789,16 +12789,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E41" s="5">
         <v>2</v>
@@ -12824,16 +12824,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E42" s="5">
         <v>2</v>
@@ -12859,16 +12859,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E43" s="5">
         <v>2</v>
@@ -12894,16 +12894,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E44" s="5">
         <v>2</v>
@@ -12929,16 +12929,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E45" s="5">
         <v>2</v>
@@ -12964,16 +12964,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -12999,16 +12999,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E47" s="5">
         <v>2</v>
@@ -13034,16 +13034,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="5">
         <v>2</v>
@@ -13069,16 +13069,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E49" s="5">
         <v>2</v>
@@ -13104,16 +13104,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
@@ -13139,16 +13139,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E51" s="5">
         <v>2</v>
@@ -13174,16 +13174,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
@@ -13209,16 +13209,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E53" s="5">
         <v>4</v>
@@ -13230,13 +13230,13 @@
         <v>11</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>11</v>
@@ -13244,16 +13244,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
@@ -13279,16 +13279,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E55" s="5">
         <v>4</v>
@@ -13300,13 +13300,13 @@
         <v>11</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I55" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J55" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>505</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>11</v>
@@ -13314,16 +13314,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
@@ -13349,16 +13349,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E57" s="5">
         <v>4</v>
@@ -13370,13 +13370,13 @@
         <v>11</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>11</v>
@@ -13384,16 +13384,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E58" s="5">
         <v>3</v>
@@ -13419,16 +13419,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E59" s="5">
         <v>4</v>
@@ -13440,13 +13440,13 @@
         <v>11</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>11</v>
@@ -13454,16 +13454,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
@@ -13489,16 +13489,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E61" s="5">
         <v>4</v>
@@ -13510,13 +13510,13 @@
         <v>11</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>11</v>
@@ -13528,13 +13528,13 @@
         <v>cet_avoid_raw,cet_wtcontrol_raw,cet_mood_raw,cet_enjoy_raw,cet_rigid_raw</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E62" s="5">
         <v>5</v>
@@ -13560,22 +13560,22 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E63" s="5">
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
@@ -13590,7 +13590,7 @@
         <v>11</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/scoring/USA_Scoring/EDGI_exercise_scoresheet.xlsx
+++ b/scoring/USA_Scoring/EDGI_exercise_scoresheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Papers/EDGI_Exercise_Validation/scoring/USA_Scoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E1F56A-0E0E-EF48-9717-9DCB4878F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA750F46-E487-B246-89E1-A2E9C1F6E66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="760" windowWidth="29600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="1460" windowWidth="29600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED100k" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="693">
   <si>
     <t>raw_vars</t>
   </si>
@@ -281,9 +281,6 @@
     <t>What is the least you have ever weighed since reaching your adult height? (Pounds)</t>
   </si>
   <si>
-    <t>Lowest Adult BMI</t>
-  </si>
-  <si>
     <t>How old were you when you were at your lowest weight at your adult height? (Years)</t>
   </si>
   <si>
@@ -1727,12 +1724,6 @@
     <t>Gender coded as Man (0), Woman (1), or Nonbinary/two-spirit (2)</t>
   </si>
   <si>
-    <t>Man = 0, Woman = 1, Nonbinary = 2</t>
-  </si>
-  <si>
-    <t>gender == 1 ~ 0, gender == 2 ~ 1, gender == 3 ~2, gender == 4 ~ 2</t>
-  </si>
-  <si>
     <t>No =0, Yes = 1</t>
   </si>
   <si>
@@ -2105,7 +2096,25 @@
     <t>ED100k_exercise_icb, ED100k_ex8_maladaptive_current</t>
   </si>
   <si>
-    <t>lowestadultBMI</t>
+    <t>Man = 0, Woman = 1, Nonbinary = 2, Other = 3</t>
+  </si>
+  <si>
+    <t>gender == 1 ~ 0, gender == 2 ~ 1, gender == 3 ~2, gender == 4 ~ 2, gender == 99 ~ 3</t>
+  </si>
+  <si>
+    <t>gender, sex</t>
+  </si>
+  <si>
+    <t>ED100k_gender_dummy_2</t>
+  </si>
+  <si>
+    <t>Gender coded as Cisgender Female, Cisgender Male, or Gender Diverse</t>
+  </si>
+  <si>
+    <t>Cisgender Male = 0, Cisgender Female = 1, Gender Diverse = 2</t>
+  </si>
+  <si>
+    <t>gender == 1 &amp; sex == 1 ~ 0, gender == 2 &amp; sex == 2 ~ 1, sex == 1 &amp; gender &gt; 1 ~ 2, sex == 2 &amp; gender == 1 ~ 2, sex == 2 &amp; gender &gt; 2 ~2, sex == 3 ~ 2</t>
   </si>
 </sst>
 </file>
@@ -3238,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3293,7 +3302,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -3363,7 +3372,7 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -3404,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3439,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3468,13 +3477,13 @@
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3483,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
@@ -3509,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3518,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>11</v>
@@ -3544,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3553,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>11</v>
@@ -3573,13 +3582,13 @@
     </row>
     <row r="10" spans="1:11" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>11</v>
@@ -3588,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>11</v>
@@ -3608,13 +3617,13 @@
     </row>
     <row r="11" spans="1:11" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>11</v>
@@ -3623,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>11</v>
@@ -3643,13 +3652,13 @@
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>12</v>
@@ -3658,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>11</v>
@@ -3678,13 +3687,13 @@
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -3693,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>11</v>
@@ -3719,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -3728,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
@@ -3748,13 +3757,13 @@
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -3763,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>11</v>
@@ -3783,13 +3792,13 @@
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -3798,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>11</v>
@@ -3824,7 +3833,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -3833,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>11</v>
@@ -3853,13 +3862,13 @@
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -3868,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>11</v>
@@ -3929,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
@@ -3938,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>11</v>
@@ -3964,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>12</v>
@@ -3973,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>11</v>
@@ -3999,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>12</v>
@@ -4034,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>12</v>
@@ -4063,13 +4072,13 @@
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>12</v>
@@ -4078,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>11</v>
@@ -4104,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>12</v>
@@ -4113,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>11</v>
@@ -4133,13 +4142,13 @@
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
@@ -4148,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>11</v>
@@ -4168,13 +4177,13 @@
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>12</v>
@@ -4183,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>11</v>
@@ -4244,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>12</v>
@@ -4279,7 +4288,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>12</v>
@@ -4314,7 +4323,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>12</v>
@@ -4323,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>11</v>
@@ -4349,7 +4358,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>12</v>
@@ -4358,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>11</v>
@@ -4378,13 +4387,13 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>340</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>341</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>12</v>
@@ -4393,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>11</v>
@@ -4419,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>12</v>
@@ -4428,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>11</v>
@@ -4454,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>12</v>
@@ -4463,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>11</v>
@@ -4489,7 +4498,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>12</v>
@@ -4498,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>11</v>
@@ -4524,7 +4533,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>12</v>
@@ -4533,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>11</v>
@@ -4559,7 +4568,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>12</v>
@@ -4568,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>11</v>
@@ -4594,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>12</v>
@@ -4629,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>12</v>
@@ -4658,13 +4667,13 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>12</v>
@@ -4673,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>11</v>
@@ -4699,7 +4708,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>12</v>
@@ -4708,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>11</v>
@@ -4734,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>12</v>
@@ -4743,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>11</v>
@@ -4839,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>12</v>
@@ -4848,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>11</v>
@@ -4874,7 +4883,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>12</v>
@@ -4909,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>12</v>
@@ -4938,13 +4947,13 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>12</v>
@@ -4953,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>11</v>
@@ -4979,7 +4988,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>12</v>
@@ -4988,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>11</v>
@@ -5014,7 +5023,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>12</v>
@@ -5023,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>11</v>
@@ -5043,13 +5052,13 @@
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>689</v>
+        <v>47</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>12</v>
@@ -5057,8 +5066,8 @@
       <c r="E52" s="13">
         <v>0</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>11</v>
+      <c r="F52" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>11</v>
@@ -5078,13 +5087,13 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>12</v>
@@ -5093,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>11</v>
@@ -5113,13 +5122,13 @@
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>12</v>
@@ -5127,8 +5136,8 @@
       <c r="E54" s="13">
         <v>0</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>68</v>
+      <c r="F54" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>11</v>
@@ -5148,13 +5157,13 @@
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>12</v>
@@ -5162,8 +5171,8 @@
       <c r="E55" s="13">
         <v>0</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>11</v>
+      <c r="F55" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>11</v>
@@ -5183,13 +5192,13 @@
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>12</v>
@@ -5197,8 +5206,8 @@
       <c r="E56" s="13">
         <v>0</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>66</v>
+      <c r="F56" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>11</v>
@@ -5218,7 +5227,7 @@
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>11</v>
@@ -5253,13 +5262,13 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>12</v>
@@ -5267,8 +5276,8 @@
       <c r="E58" s="13">
         <v>0</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>11</v>
+      <c r="F58" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>11</v>
@@ -5288,13 +5297,13 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>12</v>
@@ -5303,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>11</v>
@@ -5323,13 +5332,13 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>12</v>
@@ -5338,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>11</v>
@@ -5358,13 +5367,13 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>12</v>
@@ -5372,8 +5381,8 @@
       <c r="E61" s="13">
         <v>0</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>242</v>
+      <c r="F61" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>11</v>
@@ -5393,13 +5402,13 @@
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>12</v>
@@ -5428,13 +5437,13 @@
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>12</v>
@@ -5442,8 +5451,8 @@
       <c r="E63" s="13">
         <v>0</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>11</v>
+      <c r="F63" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>11</v>
@@ -5463,13 +5472,13 @@
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>12</v>
@@ -5478,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>11</v>
@@ -5498,13 +5507,13 @@
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>12</v>
@@ -5512,8 +5521,8 @@
       <c r="E65" s="13">
         <v>0</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>233</v>
+      <c r="F65" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>11</v>
@@ -5531,15 +5540,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>12</v>
@@ -5568,13 +5577,13 @@
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>12</v>
@@ -5603,13 +5612,13 @@
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>12</v>
@@ -5636,15 +5645,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>12</v>
@@ -5671,63 +5680,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="13">
-        <v>0</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE, A2:A70)</f>
-        <v>record_id,age,age_hitwt,age_lowt,an_bmi,an_case,be_control,be_dur,be_agefirst,be_agelast,be_current,be_icb___5,be_week,bed_case,bn_case,compul_eat,control,currentbmi,dietpills,diuretics,dp_age,dp_age_last,dp_current,dp_dur,ex_dur,ed100kv3_complete,ethnicity,ex_age,ex_age_last,ex_compel,ex_current,ex_diet,ex_distress,ex_freq,ex_friend,ex_ill,exercise,fast_age,fast_age_last,fast_current,fast_dur,fasted,gender,height,icb_lowt_5,lax_age,lax_age_last,lax_current,lax_dur,laxatives,lowestadultBMI,purging,race,record_id,sex,vom_age,vom_age_last,vom_current,vom_dur,vomit,wp_age,wp_age_last,wp_current,wp_dur,wt_cur_lb,wt_hi_lb,wt_lo_age,wt_lo_lb,wt_loan_lb</v>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE, A2:A69)</f>
+        <v>record_id,age,age_hitwt,age_lowt,an_bmi,an_case,be_control,be_dur,be_agefirst,be_agelast,be_current,be_icb___5,be_week,bed_case,bn_case,compul_eat,control,currentbmi,dietpills,diuretics,dp_age,dp_age_last,dp_current,dp_dur,ex_dur,ed100kv3_complete,ethnicity,ex_age,ex_age_last,ex_compel,ex_current,ex_diet,ex_distress,ex_freq,ex_friend,ex_ill,exercise,fast_age,fast_age_last,fast_current,fast_dur,fasted,gender,height,icb_lowt_5,lax_age,lax_age_last,lax_current,lax_dur,laxatives,purging,race,record_id,sex,vom_age,vom_age_last,vom_current,vom_dur,vomit,wp_age,wp_age_last,wp_current,wp_dur,wt_cur_lb,wt_hi_lb,wt_lo_age,wt_lo_lb,wt_loan_lb</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>11</v>
+        <v>591</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E71" s="9">
-        <v>1</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>593</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>11</v>
+        <v>594</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>11</v>
@@ -5744,13 +5753,13 @@
     </row>
     <row r="72" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>595</v>
+        <v>276</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>14</v>
@@ -5758,11 +5767,11 @@
       <c r="E72" s="9">
         <v>2</v>
       </c>
-      <c r="F72" s="30" t="s">
-        <v>596</v>
+      <c r="F72" s="9" t="s">
+        <v>521</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>11</v>
@@ -5779,13 +5788,13 @@
     </row>
     <row r="73" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>14</v>
@@ -5794,10 +5803,10 @@
         <v>2</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>11</v>
@@ -5814,13 +5823,13 @@
     </row>
     <row r="74" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>281</v>
+        <v>673</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>14</v>
@@ -5831,8 +5840,8 @@
       <c r="F74" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>541</v>
+      <c r="G74" t="s">
+        <v>535</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>11</v>
@@ -5847,15 +5856,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>491</v>
+        <v>28</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>95</v>
+        <v>273</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>14</v>
@@ -5864,10 +5873,10 @@
         <v>2</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="G75" t="s">
-        <v>536</v>
+        <v>521</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>11</v>
@@ -5884,13 +5893,13 @@
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>14</v>
@@ -5899,10 +5908,10 @@
         <v>2</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>11</v>
@@ -5919,13 +5928,13 @@
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>14</v>
@@ -5934,10 +5943,10 @@
         <v>2</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>11</v>
@@ -5952,15 +5961,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>280</v>
+    <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>14</v>
@@ -5969,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>541</v>
@@ -5987,11 +5996,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -6023,14 +6032,14 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>19</v>
+      <c r="A80" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>14</v>
@@ -6039,10 +6048,10 @@
         <v>2</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>11</v>
@@ -6059,34 +6068,34 @@
     </row>
     <row r="81" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="E81" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>541</v>
+        <v>11</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>11</v>
+        <v>383</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="K81" s="9" t="s">
         <v>11</v>
@@ -6094,16 +6103,16 @@
     </row>
     <row r="82" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E82" s="9">
         <v>3</v>
@@ -6115,13 +6124,13 @@
         <v>11</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I82" s="9">
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>11</v>
@@ -6129,51 +6138,51 @@
     </row>
     <row r="83" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>58</v>
+        <v>595</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>369</v>
+        <v>588</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>116</v>
+        <v>589</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="E83" s="9">
         <v>3</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>11</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>598</v>
+      <c r="A84" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>591</v>
+        <v>270</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>592</v>
+        <v>401</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E84" s="9">
         <v>3</v>
@@ -6194,27 +6203,27 @@
         <v>11</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>271</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E85" s="9">
         <v>3</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>11</v>
@@ -6229,117 +6238,117 @@
         <v>11</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="E86" s="9">
         <v>3</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>11</v>
+        <v>283</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>11</v>
+        <v>570</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>548</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>35</v>
+      <c r="A87" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>235</v>
+        <v>561</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="E87" s="9">
         <v>3</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>575</v>
+        <v>686</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>573</v>
+        <v>11</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>11</v>
+        <v>687</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>17</v>
+      <c r="A88" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>561</v>
+        <v>326</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>562</v>
+        <v>86</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="E88" s="9">
         <v>3</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>563</v>
+        <v>11</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>11</v>
+        <v>283</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>564</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>327</v>
@@ -6348,7 +6357,7 @@
         <v>87</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E89" s="9">
         <v>3</v>
@@ -6360,7 +6369,7 @@
         <v>11</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I89" s="9">
         <v>0</v>
@@ -6374,16 +6383,16 @@
     </row>
     <row r="90" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E90" s="9">
         <v>3</v>
@@ -6395,13 +6404,13 @@
         <v>11</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>284</v>
+        <v>492</v>
       </c>
       <c r="I90" s="9">
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>11</v>
@@ -6409,105 +6418,105 @@
     </row>
     <row r="91" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>374</v>
+        <v>581</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>119</v>
+        <v>582</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E91" s="9">
         <v>3</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>11</v>
+        <v>572</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="I91" s="9">
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>375</v>
+        <v>598</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>584</v>
+        <v>362</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>585</v>
+        <v>109</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E92" s="9">
         <v>3</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>575</v>
+        <v>11</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I92" s="9">
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>363</v>
+        <v>585</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>110</v>
+        <v>586</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E93" s="9">
         <v>3</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>11</v>
+        <v>572</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>368</v>
+        <v>587</v>
       </c>
       <c r="I93" s="9">
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>11</v>
@@ -6515,34 +6524,34 @@
     </row>
     <row r="94" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>588</v>
+        <v>376</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>589</v>
+        <v>107</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E94" s="9">
         <v>3</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>575</v>
+        <v>11</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>590</v>
+        <v>493</v>
       </c>
       <c r="I94" s="9">
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>603</v>
+        <v>379</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>11</v>
@@ -6550,16 +6559,16 @@
     </row>
     <row r="95" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E95" s="9">
         <v>3</v>
@@ -6571,97 +6580,97 @@
         <v>11</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>494</v>
+        <v>366</v>
       </c>
       <c r="I95" s="9">
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E96" s="9">
-        <v>3</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="K96" s="9" t="s">
+      <c r="A96" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96" s="29">
+        <v>4</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="I96" s="29">
+        <v>0</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="K96" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="29" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>586</v>
+        <v>689</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>587</v>
+        <v>690</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="E97" s="29">
         <v>4</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="I97" s="29">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="I97" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="J97" s="29" t="s">
-        <v>600</v>
+        <v>11</v>
       </c>
       <c r="K97" s="29" t="s">
-        <v>11</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>14</v>
@@ -6670,10 +6679,10 @@
         <v>4</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>11</v>
@@ -6690,13 +6699,13 @@
     </row>
     <row r="99" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>370</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>14</v>
@@ -6705,10 +6714,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>11</v>
@@ -6725,13 +6734,13 @@
     </row>
     <row r="100" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="C100" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>14</v>
@@ -6740,10 +6749,10 @@
         <v>4</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>11</v>
@@ -6760,13 +6769,13 @@
     </row>
     <row r="101" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>14</v>
@@ -6775,10 +6784,10 @@
         <v>4</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>11</v>
@@ -6795,13 +6804,13 @@
     </row>
     <row r="102" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>364</v>
-      </c>
       <c r="C102" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>14</v>
@@ -6810,10 +6819,10 @@
         <v>4</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>11</v>
@@ -6830,13 +6839,13 @@
     </row>
     <row r="103" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>378</v>
-      </c>
       <c r="C103" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>14</v>
@@ -6845,10 +6854,10 @@
         <v>4</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>11</v>
@@ -6865,13 +6874,13 @@
     </row>
     <row r="104" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>14</v>
@@ -6880,10 +6889,10 @@
         <v>4</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>11</v>
@@ -6900,13 +6909,13 @@
     </row>
     <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>14</v>
@@ -6915,10 +6924,10 @@
         <v>4</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>11</v>
@@ -6935,13 +6944,13 @@
     </row>
     <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="29" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>14</v>
@@ -6950,10 +6959,10 @@
         <v>5</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H106" s="29" t="s">
         <v>11</v>
@@ -6970,22 +6979,22 @@
     </row>
     <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E107" s="9">
         <v>5</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>11</v>
@@ -7000,18 +7009,18 @@
         <v>11</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>14</v>
@@ -7020,10 +7029,10 @@
         <v>6</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>11</v>
@@ -7040,13 +7049,13 @@
     </row>
     <row r="109" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>14</v>
@@ -7055,10 +7064,10 @@
         <v>6</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>11</v>
@@ -7078,46 +7087,46 @@
         <v>35</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" s="9">
         <v>6</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I110" s="9">
         <v>0</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="D111" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E111" s="9">
         <v>6</v>
@@ -7129,13 +7138,13 @@
         <v>11</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I111" s="9">
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>11</v>
@@ -7143,16 +7152,16 @@
     </row>
     <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E112" s="9">
         <v>6</v>
@@ -7164,13 +7173,13 @@
         <v>11</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I112" s="9">
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>11</v>
@@ -7181,13 +7190,13 @@
         <v>34</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E113" s="9">
         <v>6</v>
@@ -7199,13 +7208,13 @@
         <v>11</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I113" s="9">
         <v>0</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>11</v>
@@ -7216,13 +7225,13 @@
         <v>31</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E114" s="9">
         <v>6</v>
@@ -7234,13 +7243,13 @@
         <v>11</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I114" s="9">
         <v>0</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>11</v>
@@ -7248,13 +7257,13 @@
     </row>
     <row r="115" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>14</v>
@@ -7263,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>11</v>
@@ -7286,13 +7295,13 @@
         <v>32</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E116" s="9">
         <v>6</v>
@@ -7304,13 +7313,13 @@
         <v>11</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I116" s="9">
         <v>0</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>11</v>
@@ -7318,13 +7327,13 @@
     </row>
     <row r="117" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>14</v>
@@ -7333,10 +7342,10 @@
         <v>6</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>11</v>
@@ -7353,22 +7362,22 @@
     </row>
     <row r="118" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E118" s="9">
         <v>7</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>11</v>
@@ -7383,25 +7392,25 @@
         <v>11</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E119" s="9">
         <v>7</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>11</v>
@@ -7416,27 +7425,27 @@
         <v>11</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="D120" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E120" s="9">
         <v>7</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>11</v>
@@ -7451,21 +7460,21 @@
         <v>11</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E121" s="9">
         <v>7</v>
@@ -7491,22 +7500,22 @@
     </row>
     <row r="122" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E122" s="9">
         <v>7</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>11</v>
@@ -7521,18 +7530,18 @@
         <v>11</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="C123" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>14</v>
@@ -7541,10 +7550,10 @@
         <v>7</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>11</v>
@@ -7561,13 +7570,13 @@
     </row>
     <row r="124" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>14</v>
@@ -7576,10 +7585,10 @@
         <v>8</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>11</v>
@@ -7596,10 +7605,10 @@
     </row>
     <row r="125" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="9" t="s">
@@ -7609,10 +7618,10 @@
         <v>8</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>11</v>
@@ -7629,22 +7638,22 @@
     </row>
     <row r="126" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E126" s="9">
         <v>8</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G126" s="9" t="s">
         <v>11</v>
@@ -7659,21 +7668,21 @@
         <v>11</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E127" s="9">
         <v>8</v>
@@ -7694,27 +7703,27 @@
         <v>11</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E128" s="9">
         <v>9</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>11</v>
@@ -7729,21 +7738,21 @@
         <v>11</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E129" s="9">
         <v>10</v>
@@ -7764,21 +7773,21 @@
         <v>11</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E130" s="9">
         <v>10</v>
@@ -7799,7 +7808,7 @@
         <v>11</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7876,7 +7885,7 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -7900,7 +7909,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -7911,13 +7920,13 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -7926,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -7946,13 +7955,13 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -7961,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -7981,13 +7990,13 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -7996,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -8016,13 +8025,13 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -8031,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -8051,13 +8060,13 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -8066,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -8086,13 +8095,13 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -8101,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -8121,13 +8130,13 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -8136,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -8156,13 +8165,13 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -8171,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -8191,13 +8200,13 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -8206,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -8226,13 +8235,13 @@
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -8241,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -8261,13 +8270,13 @@
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -8276,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -8296,13 +8305,13 @@
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -8311,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -8331,13 +8340,13 @@
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -8346,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -8366,13 +8375,13 @@
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -8381,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -8401,13 +8410,13 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -8416,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -8436,13 +8445,13 @@
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -8451,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -8471,13 +8480,13 @@
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -8486,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -8506,13 +8515,13 @@
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -8521,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -8541,13 +8550,13 @@
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -8556,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -8612,16 +8621,16 @@
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -8647,16 +8656,16 @@
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -8682,16 +8691,16 @@
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -8717,16 +8726,16 @@
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="B26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="B26" t="s">
-        <v>645</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>618</v>
-      </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -8752,16 +8761,16 @@
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -8771,13 +8780,13 @@
         <v>11</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>11</v>
@@ -8785,16 +8794,16 @@
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B28" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -8804,13 +8813,13 @@
         <v>11</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>11</v>
@@ -8818,16 +8827,16 @@
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
+        <v>611</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>617</v>
-      </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -8837,13 +8846,13 @@
         <v>11</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>11</v>
@@ -8851,16 +8860,16 @@
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -8870,13 +8879,13 @@
         <v>11</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>11</v>
@@ -8884,16 +8893,16 @@
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B31" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -8919,16 +8928,16 @@
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B32" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -8940,13 +8949,13 @@
         <v>11</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K32" s="25" t="s">
         <v>11</v>
@@ -8954,22 +8963,22 @@
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B33" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>11</v>
@@ -8984,27 +8993,27 @@
         <v>11</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B34" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E34">
         <v>6</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>11</v>
@@ -9019,7 +9028,7 @@
         <v>11</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -9078,7 +9087,7 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -9102,7 +9111,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -9113,13 +9122,13 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -9128,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -9148,13 +9157,13 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -9163,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -9183,13 +9192,13 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9198,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -9218,13 +9227,13 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -9233,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -9253,13 +9262,13 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9268,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -9288,13 +9297,13 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9303,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -9323,13 +9332,13 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -9338,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -9358,13 +9367,13 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -9373,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -9393,13 +9402,13 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -9408,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -9428,13 +9437,13 @@
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -9443,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -9463,13 +9472,13 @@
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -9478,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -9498,13 +9507,13 @@
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -9513,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -9569,16 +9578,16 @@
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9604,16 +9613,16 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -9639,16 +9648,16 @@
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -9674,16 +9683,16 @@
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>619</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="B19" t="s">
-        <v>622</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>632</v>
-      </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -9695,13 +9704,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>11</v>
@@ -9709,16 +9718,16 @@
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="B20" t="s">
-        <v>623</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>633</v>
-      </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -9730,13 +9739,13 @@
         <v>11</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>11</v>
@@ -9744,16 +9753,16 @@
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>628</v>
+      </c>
+      <c r="B21" t="s">
+        <v>622</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="B21" t="s">
-        <v>625</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>634</v>
-      </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -9765,13 +9774,13 @@
         <v>11</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>11</v>
@@ -9836,7 +9845,7 @@
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>11</v>
@@ -9871,13 +9880,13 @@
     </row>
     <row r="3" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>12</v>
@@ -9886,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>11</v>
@@ -9906,13 +9915,13 @@
     </row>
     <row r="4" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>12</v>
@@ -9921,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>11</v>
@@ -9941,13 +9950,13 @@
     </row>
     <row r="5" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>12</v>
@@ -9956,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>11</v>
@@ -9976,13 +9985,13 @@
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>12</v>
@@ -9991,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>11</v>
@@ -10011,13 +10020,13 @@
     </row>
     <row r="7" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>12</v>
@@ -10026,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>11</v>
@@ -10046,13 +10055,13 @@
     </row>
     <row r="8" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>12</v>
@@ -10061,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>11</v>
@@ -10081,13 +10090,13 @@
     </row>
     <row r="9" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
@@ -10096,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>11</v>
@@ -10116,13 +10125,13 @@
     </row>
     <row r="10" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>12</v>
@@ -10131,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>11</v>
@@ -10151,13 +10160,13 @@
     </row>
     <row r="11" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>12</v>
@@ -10166,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>11</v>
@@ -10186,13 +10195,13 @@
     </row>
     <row r="12" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>12</v>
@@ -10201,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>11</v>
@@ -10221,13 +10230,13 @@
     </row>
     <row r="13" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>12</v>
@@ -10236,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>11</v>
@@ -10256,13 +10265,13 @@
     </row>
     <row r="14" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>12</v>
@@ -10271,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>11</v>
@@ -10291,13 +10300,13 @@
     </row>
     <row r="15" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>12</v>
@@ -10306,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>11</v>
@@ -10326,13 +10335,13 @@
     </row>
     <row r="16" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>12</v>
@@ -10341,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>11</v>
@@ -10361,13 +10370,13 @@
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>12</v>
@@ -10376,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>11</v>
@@ -10396,13 +10405,13 @@
     </row>
     <row r="18" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>12</v>
@@ -10411,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>11</v>
@@ -10431,13 +10440,13 @@
     </row>
     <row r="19" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>12</v>
@@ -10446,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>11</v>
@@ -10466,13 +10475,13 @@
     </row>
     <row r="20" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>12</v>
@@ -10481,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>11</v>
@@ -10501,13 +10510,13 @@
     </row>
     <row r="21" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>12</v>
@@ -10516,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>11</v>
@@ -10536,13 +10545,13 @@
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>12</v>
@@ -10551,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>11</v>
@@ -10571,13 +10580,13 @@
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>12</v>
@@ -10586,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>11</v>
@@ -10606,13 +10615,13 @@
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>12</v>
@@ -10621,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>11</v>
@@ -10641,13 +10650,13 @@
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>12</v>
@@ -10656,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>11</v>
@@ -10676,13 +10685,13 @@
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>12</v>
@@ -10691,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>11</v>
@@ -10711,13 +10720,13 @@
     </row>
     <row r="27" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>12</v>
@@ -10726,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>11</v>
@@ -10746,13 +10755,13 @@
     </row>
     <row r="28" spans="1:11" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>12</v>
@@ -10761,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>11</v>
@@ -10781,13 +10790,13 @@
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>12</v>
@@ -10796,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>11</v>
@@ -10816,13 +10825,13 @@
     </row>
     <row r="30" spans="1:11" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>12</v>
@@ -10831,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>11</v>
@@ -10851,7 +10860,7 @@
     </row>
     <row r="31" spans="1:11" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>11</v>
@@ -10886,16 +10895,16 @@
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D32" t="s">
         <v>386</v>
-      </c>
-      <c r="D32" t="s">
-        <v>387</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -10921,16 +10930,16 @@
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -10956,16 +10965,16 @@
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -10991,16 +11000,16 @@
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -11026,16 +11035,16 @@
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -11047,13 +11056,13 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>11</v>
@@ -11061,16 +11070,16 @@
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -11096,16 +11105,16 @@
     </row>
     <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -11131,16 +11140,16 @@
     </row>
     <row r="39" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -11166,22 +11175,22 @@
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -11201,16 +11210,16 @@
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -11219,13 +11228,13 @@
         <v>11</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>11</v>
@@ -11233,16 +11242,16 @@
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -11251,13 +11260,13 @@
         <v>11</v>
       </c>
       <c r="H42" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
@@ -11265,16 +11274,16 @@
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -11283,13 +11292,13 @@
         <v>11</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>514</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
@@ -11297,16 +11306,16 @@
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -11315,13 +11324,13 @@
         <v>11</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
@@ -11329,16 +11338,16 @@
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B45" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="D45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -11423,7 +11432,7 @@
     </row>
     <row r="2" spans="1:11" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>11</v>
@@ -11458,13 +11467,13 @@
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -11473,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>11</v>
@@ -11493,13 +11502,13 @@
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>12</v>
@@ -11508,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>11</v>
@@ -11528,13 +11537,13 @@
     </row>
     <row r="5" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>12</v>
@@ -11543,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>11</v>
@@ -11563,13 +11572,13 @@
     </row>
     <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
@@ -11578,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>11</v>
@@ -11598,13 +11607,13 @@
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>12</v>
@@ -11613,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>11</v>
@@ -11633,13 +11642,13 @@
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>12</v>
@@ -11648,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>11</v>
@@ -11668,13 +11677,13 @@
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>12</v>
@@ -11683,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>11</v>
@@ -11703,13 +11712,13 @@
     </row>
     <row r="10" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>12</v>
@@ -11718,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>11</v>
@@ -11738,13 +11747,13 @@
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>12</v>
@@ -11753,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>11</v>
@@ -11773,13 +11782,13 @@
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>12</v>
@@ -11788,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>11</v>
@@ -11808,13 +11817,13 @@
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>12</v>
@@ -11823,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>11</v>
@@ -11843,13 +11852,13 @@
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>12</v>
@@ -11858,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>11</v>
@@ -11878,13 +11887,13 @@
     </row>
     <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>12</v>
@@ -11893,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>11</v>
@@ -11913,13 +11922,13 @@
     </row>
     <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>12</v>
@@ -11928,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>11</v>
@@ -11948,13 +11957,13 @@
     </row>
     <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>12</v>
@@ -11963,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>11</v>
@@ -11983,13 +11992,13 @@
     </row>
     <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>12</v>
@@ -11998,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>11</v>
@@ -12018,13 +12027,13 @@
     </row>
     <row r="19" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>12</v>
@@ -12033,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>11</v>
@@ -12053,13 +12062,13 @@
     </row>
     <row r="20" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>12</v>
@@ -12068,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>11</v>
@@ -12088,13 +12097,13 @@
     </row>
     <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>12</v>
@@ -12103,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>11</v>
@@ -12123,13 +12132,13 @@
     </row>
     <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>12</v>
@@ -12138,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>11</v>
@@ -12158,13 +12167,13 @@
     </row>
     <row r="23" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>12</v>
@@ -12173,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>11</v>
@@ -12193,13 +12202,13 @@
     </row>
     <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>12</v>
@@ -12208,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>11</v>
@@ -12228,13 +12237,13 @@
     </row>
     <row r="25" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>12</v>
@@ -12243,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>11</v>
@@ -12263,13 +12272,13 @@
     </row>
     <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>12</v>
@@ -12278,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>11</v>
@@ -12334,16 +12343,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -12369,16 +12378,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
@@ -12404,16 +12413,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -12439,16 +12448,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E31" s="5">
         <v>2</v>
@@ -12474,16 +12483,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -12509,16 +12518,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E33" s="5">
         <v>2</v>
@@ -12544,16 +12553,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E34" s="5">
         <v>2</v>
@@ -12579,13 +12588,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
@@ -12594,10 +12603,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>11</v>
@@ -12614,16 +12623,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -12649,16 +12658,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
@@ -12684,16 +12693,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E38" s="5">
         <v>2</v>
@@ -12719,13 +12728,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -12734,10 +12743,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>11</v>
@@ -12754,16 +12763,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E40" s="5">
         <v>2</v>
@@ -12789,16 +12798,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E41" s="5">
         <v>2</v>
@@ -12824,16 +12833,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E42" s="5">
         <v>2</v>
@@ -12859,16 +12868,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E43" s="5">
         <v>2</v>
@@ -12894,16 +12903,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E44" s="5">
         <v>2</v>
@@ -12929,16 +12938,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E45" s="5">
         <v>2</v>
@@ -12964,16 +12973,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -12999,16 +13008,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E47" s="5">
         <v>2</v>
@@ -13034,16 +13043,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E48" s="5">
         <v>2</v>
@@ -13069,16 +13078,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E49" s="5">
         <v>2</v>
@@ -13104,16 +13113,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
@@ -13139,16 +13148,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E51" s="5">
         <v>2</v>
@@ -13174,16 +13183,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
@@ -13209,16 +13218,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E53" s="5">
         <v>4</v>
@@ -13230,13 +13239,13 @@
         <v>11</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>11</v>
@@ -13244,16 +13253,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
@@ -13279,16 +13288,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E55" s="5">
         <v>4</v>
@@ -13300,13 +13309,13 @@
         <v>11</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I55" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J55" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>504</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>11</v>
@@ -13314,16 +13323,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
@@ -13349,16 +13358,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E57" s="5">
         <v>4</v>
@@ -13370,13 +13379,13 @@
         <v>11</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>11</v>
@@ -13384,16 +13393,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E58" s="5">
         <v>3</v>
@@ -13419,16 +13428,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E59" s="5">
         <v>4</v>
@@ -13440,13 +13449,13 @@
         <v>11</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>11</v>
@@ -13454,16 +13463,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
@@ -13489,16 +13498,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E61" s="5">
         <v>4</v>
@@ -13510,13 +13519,13 @@
         <v>11</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>11</v>
@@ -13528,13 +13537,13 @@
         <v>cet_avoid_raw,cet_wtcontrol_raw,cet_mood_raw,cet_enjoy_raw,cet_rigid_raw</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E62" s="5">
         <v>5</v>
@@ -13560,22 +13569,22 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E63" s="5">
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
@@ -13590,7 +13599,7 @@
         <v>11</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
